--- a/data/trans_dic/P43_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P43_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con grado de capacidad laboral autopercibida &lt;=7</t>
+          <t>Población con grado de capacidad laboral autopercibida &lt;=7 (tasa de respuesta: 99,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,47%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 17,93</t>
+          <t>5,39; 9,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 15,66</t>
+          <t>4,83; 8,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 12,75</t>
+          <t>3,96; 7,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,09; 18,66</t>
+          <t>6,22; 10,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,66; 23,94</t>
+          <t>5,91; 10,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,77; 22,59</t>
+          <t>6,26; 10,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,53; 22,83</t>
+          <t>5,86; 10,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,0; 21,94</t>
+          <t>6,93; 10,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 19,67</t>
+          <t>6,92; 10,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,81; 17,82</t>
+          <t>7,01; 11,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,77; 16,52</t>
+          <t>5,85; 9,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,45; 18,65</t>
+          <t>6,21; 9,58</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 8,96</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 9,12</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 8,35</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,26; 10,36</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 9,08</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6,59; 9,53</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>9,76%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9,68%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,86; 19,28</t>
+          <t>5,21; 11,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,55; 17,3</t>
+          <t>5,44; 10,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,52; 20,65</t>
+          <t>6,41; 13,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,27; 25,44</t>
+          <t>6,09; 13,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,55; 24,02</t>
+          <t>7,07; 14,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,48; 21,06</t>
+          <t>7,48; 15,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,52; 20,51</t>
+          <t>4,98; 9,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,34; 28,0</t>
+          <t>5,3; 9,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,16; 19,36</t>
+          <t>5,28; 8,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 17,26</t>
+          <t>7,93; 14,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,34; 19,66</t>
+          <t>5,72; 12,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 23,94</t>
+          <t>6,48; 13,78</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,54; 9,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,93; 8,93</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6,26; 10,08</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,52; 12,23</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 12,63</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 13,29</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>18,6%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>19,54%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>16,96%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>19,25%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>14,86%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 26,11</t>
+          <t>3,39; 12,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,54; 29,87</t>
+          <t>5,94; 15,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,83; 22,61</t>
+          <t>4,4; 12,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>10,41; 39,49</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>9,93; 32,92</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,05; 32,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,5; 27,23</t>
+          <t>2,91; 11,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>4,0; 11,34</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 12,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 14,79</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>10,09; 24,82</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>13,56; 26,63</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>9,94; 21,83</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 10,05</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 11,65</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 10,87</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>9,07; 25,56</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>8,53%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,9; 17,32</t>
+          <t>5,65; 8,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,9; 15,81</t>
+          <t>6,12; 8,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 15,09</t>
+          <t>5,74; 9,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 18,62</t>
+          <t>7,79; 12,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,85; 22,86</t>
+          <t>6,67; 10,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 21,04</t>
+          <t>6,98; 11,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,25; 20,41</t>
+          <t>6,01; 8,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,03; 21,85</t>
+          <t>6,65; 9,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,94; 18,32</t>
+          <t>6,61; 9,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 16,93</t>
+          <t>8,13; 11,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,85; 16,66</t>
+          <t>6,33; 9,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,49; 18,99</t>
+          <t>6,78; 9,9</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6,26; 8,36</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 8,71</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,51; 8,65</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>8,3; 11,2</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,97; 9,42</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>7,37; 9,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con grado de capacidad laboral autopercibida &lt;=7 (tasa de respuesta: 99,49%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>114704</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>108962</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>88476</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>135258</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17664</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18449</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>137141</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>156589</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>157718</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>161139</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17481</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18001</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>251845</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>265551</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>246193</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>296397</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>35145</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>36450</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>86661; 152965</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>79467; 141991</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>65074; 118830</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>101122; 177209</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13407; 22748</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14022; 23728</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>103449; 178294</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>125987; 190127</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>125368; 195096</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>125191; 201285</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13639; 21821</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14495; 22375</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>204821; 301919</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>218411; 315927</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>205083; 288473</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>247831; 353443</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>29345; 41771</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>30162; 43614</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>99907</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>105782</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>120114</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>121996</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7433</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7847</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>94210</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>94063</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>94220</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>141751</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5583</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6532</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>194118</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>199845</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>214334</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>263747</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>13016</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>14378</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>70475; 153772</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>75008; 143099</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>87539; 187669</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>83735; 182389</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5108; 10809</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5344; 11154</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>68427; 124855</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>72644; 124528</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>72376; 120126</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>106923; 189377</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3694; 8381</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4335; 9223</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>151213; 247819</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>163198; 245596</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>171285; 275642</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>204872; 333207</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>9830; 17292</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>10642; 18394</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28115</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41406</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32076</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>78030</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26427</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28490</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27570</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>37764</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>54542</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>69896</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>59646</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>115794</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13969; 50667</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24767; 64278</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18352; 52842</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43680; 165627</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11929; 45624</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16398; 46464</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14600; 49482</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22026; 59665</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>32772; 82533</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>46505; 96292</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>39075; 90150</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>74618; 210321</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>242727</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>256150</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>240666</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>335284</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25098</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26296</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>257778</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>279142</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>279507</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>340654</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>23064</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>24533</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>500505</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>535292</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>520173</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>675938</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>48162</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>50829</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>190434; 299208</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>210586; 309472</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>196653; 308569</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>266440; 439373</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>19962; 30881</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20623; 32500</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>213210; 310502</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>239285; 324547</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>237464; 327042</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>287773; 408660</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>18847; 27918</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>20364; 29738</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>433242; 578295</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>472238; 613195</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>456750; 606835</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>577385; 779273</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>41579; 56226</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>43940; 57978</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
